--- a/Students-group.xlsx
+++ b/Students-group.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="ListStudentClass" r:id="rId3" sheetId="1"/>
+    <sheet name="ListStudentClass" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Email</t>
   </si>
@@ -141,25 +140,41 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,188 +182,1399 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1719" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="C2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>